--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mostafaaly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C23078C-2FA7-AD4C-9CD9-86DACE138737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983253CE-268B-BA4A-B983-16DA5BE4D091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{2268C6E5-6009-AF4C-85C2-61D86A52B581}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" xr2:uid="{2268C6E5-6009-AF4C-85C2-61D86A52B581}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Partner</t>
   </si>
   <si>
-    <t>https://placehold.co/600x100</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>https://placehold.co/700x600</t>
+  </si>
+  <si>
+    <t>https://astutereview.sharepoint.com/sites/AstuteReviewInternal2/_layouts/15/download.aspx?UniqueId=07fdf07d%2D4215%2D4dd1%2D81cd%2Da85cc1bfbddb</t>
   </si>
 </sst>
 </file>
@@ -509,10 +509,13 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -542,44 +545,44 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -593,44 +596,44 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -644,44 +647,44 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -695,44 +698,44 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mostafaaly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983253CE-268B-BA4A-B983-16DA5BE4D091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378DEFE2-30FB-884D-8CC2-5036335D4E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" xr2:uid="{2268C6E5-6009-AF4C-85C2-61D86A52B581}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>James Hirchak</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Partner</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
     <t>Dana Hirchak</t>
   </si>
   <si>
@@ -116,14 +110,14 @@
     <t>https://placehold.co/700x600</t>
   </si>
   <si>
-    <t>https://astutereview.sharepoint.com/sites/AstuteReviewInternal2/_layouts/15/download.aspx?UniqueId=07fdf07d%2D4215%2D4dd1%2D81cd%2Da85cc1bfbddb</t>
+    <t>https://raw.githubusercontent.com/mostafaalyCS/sheet/refs/heads/main/Abby%20Doe.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,8 +134,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -167,10 +183,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,15 +527,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="1" max="3" width="31.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="133.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,231 +547,204 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{4504FEE0-73DC-6347-BAB4-A9636D48838A}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{DAFE4E82-E997-5842-A370-9282B76C4F1C}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{84D9F93F-DA90-074C-8655-2B44F049ED03}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{DE52CB3C-C17C-A54C-B236-60A707EDFF5B}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{32F8EDA9-58BF-B143-A7FB-5250F36F0746}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{BB711DA3-342E-4849-8DE6-3DDBA625D0D4}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{60E71AB5-5D15-7D42-B965-004D1008C6AC}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{23821004-2491-3447-BF03-11EC62D02B0E}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{1CBBD2F3-2018-A84B-B341-3C103FF817C1}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{904911BC-2F31-454C-BD61-5FE7FBB261E2}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{E7B49423-D72F-FB4F-AA40-95FD7E3B56E1}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{85B3DB74-6D49-CF4C-BFE5-7494B100B459}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{DAFE4E82-E997-5842-A370-9282B76C4F1C}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{84D9F93F-DA90-074C-8655-2B44F049ED03}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{DE52CB3C-C17C-A54C-B236-60A707EDFF5B}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{32F8EDA9-58BF-B143-A7FB-5250F36F0746}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{BB711DA3-342E-4849-8DE6-3DDBA625D0D4}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{60E71AB5-5D15-7D42-B965-004D1008C6AC}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{23821004-2491-3447-BF03-11EC62D02B0E}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{1CBBD2F3-2018-A84B-B341-3C103FF817C1}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{904911BC-2F31-454C-BD61-5FE7FBB261E2}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{E7B49423-D72F-FB4F-AA40-95FD7E3B56E1}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{85B3DB74-6D49-CF4C-BFE5-7494B100B459}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mostafaaly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378DEFE2-30FB-884D-8CC2-5036335D4E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465F5833-7BA0-DC43-8076-C016423197E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" xr2:uid="{2268C6E5-6009-AF4C-85C2-61D86A52B581}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Image</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>James Hirchak</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
     <t>Managing Director</t>
   </si>
   <si>
-    <t>https://placehold.co/600x200</t>
-  </si>
-  <si>
     <t>Kevin Ponziani</t>
   </si>
   <si>
@@ -80,37 +80,19 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>https://placehold.co/600x300</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x400</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x500</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x600</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x700</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x800</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x900</t>
-  </si>
-  <si>
-    <t>https://placehold.co/700x400</t>
-  </si>
-  <si>
-    <t>https://placehold.co/700x500</t>
-  </si>
-  <si>
-    <t>https://placehold.co/700x600</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/mostafaalyCS/sheet/refs/heads/main/Abby%20Doe.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/mostafaalyCS/sheet/refs/heads/main/Jane%20Smith.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/mostafaalyCS/sheet/refs/heads/main/John%20Doe.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/mostafaalyCS/sheet/refs/heads/main/Samantha%20Black.jpg</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry.</t>
   </si>
 </sst>
 </file>
@@ -527,7 +509,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -550,37 +532,43 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -593,39 +581,45 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -638,39 +632,45 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -682,40 +682,46 @@
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -728,23 +734,23 @@
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{DAFE4E82-E997-5842-A370-9282B76C4F1C}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{84D9F93F-DA90-074C-8655-2B44F049ED03}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{DE52CB3C-C17C-A54C-B236-60A707EDFF5B}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{32F8EDA9-58BF-B143-A7FB-5250F36F0746}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{BB711DA3-342E-4849-8DE6-3DDBA625D0D4}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{60E71AB5-5D15-7D42-B965-004D1008C6AC}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{23821004-2491-3447-BF03-11EC62D02B0E}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{1CBBD2F3-2018-A84B-B341-3C103FF817C1}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{904911BC-2F31-454C-BD61-5FE7FBB261E2}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{E7B49423-D72F-FB4F-AA40-95FD7E3B56E1}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{85B3DB74-6D49-CF4C-BFE5-7494B100B459}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{DE52CB3C-C17C-A54C-B236-60A707EDFF5B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{FB140F00-A4E1-C54E-B1EC-783447B7F552}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{4FDD5F4F-4D82-3F46-8100-50E26C2D815C}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{AC7E6BCB-7DCD-EA44-9BB3-E2B20D5ACB40}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{52C68FA3-019F-154C-A477-2E63957B7BA4}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{CC3A397F-BAC9-D84A-B19C-A57D9E86B83F}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{BFA4D6E2-B81C-FC43-8493-9789C9ECC791}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{DDED5457-5B39-854D-8E98-7180EBB202A6}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{21610BCD-6B79-F04E-9751-842169468906}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mostafaaly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465F5833-7BA0-DC43-8076-C016423197E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A1C1D3-8CF9-BA42-A01C-9AADC2D881DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" xr2:uid="{2268C6E5-6009-AF4C-85C2-61D86A52B581}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F704C1D0-E4B3-5542-9A0D-AF7AF7B8EEFE}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -740,6 +740,108 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{DE52CB3C-C17C-A54C-B236-60A707EDFF5B}"/>
@@ -751,6 +853,12 @@
     <hyperlink ref="D11" r:id="rId7" xr:uid="{BFA4D6E2-B81C-FC43-8493-9789C9ECC791}"/>
     <hyperlink ref="D8" r:id="rId8" xr:uid="{DDED5457-5B39-854D-8E98-7180EBB202A6}"/>
     <hyperlink ref="D12" r:id="rId9" xr:uid="{21610BCD-6B79-F04E-9751-842169468906}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{95108326-5B05-E348-A429-9E6184A77CC1}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{76F1B559-0F92-D645-A64C-38E82AA9A71F}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{90C59491-6D60-3444-94CA-91C9C1E070A1}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{35EE9F72-5742-DB4E-941D-867C2F8D534B}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{CE46A7D0-8506-1F46-99AC-1E716070D7C3}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{852EBA6D-EA36-EC45-9D54-F64487132038}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
